--- a/CSC3510 S2021/CSC3510CourseSchedule.xlsx
+++ b/CSC3510 S2021/CSC3510CourseSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\CSC3510 S2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29C686-9AC8-47CD-9DD9-72622F2F6041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF97FF-EF95-4077-B739-6139DC9DC4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{684E20BE-84CE-46C8-8E7A-1465D0AC593E}"/>
+    <workbookView xWindow="1992" yWindow="756" windowWidth="17280" windowHeight="8976" activeTab="2" xr2:uid="{684E20BE-84CE-46C8-8E7A-1465D0AC593E}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -38,9 +38,6 @@
     <t>Final Exams (4/26-5/1)</t>
   </si>
   <si>
-    <t>MLK ( 1/18)</t>
-  </si>
-  <si>
     <t>William E Adorjan</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Work / Reading</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -230,18 +224,9 @@
     <t>Ct</t>
   </si>
   <si>
-    <t>FINAL EXAM T 11:15AM</t>
-  </si>
-  <si>
-    <t>Java Review and Junit</t>
-  </si>
-  <si>
     <t>Test case design</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapters 3-4 </t>
-  </si>
-  <si>
     <t>JavaScript and mocha</t>
   </si>
   <si>
@@ -258,126 +243,6 @@
   </si>
   <si>
     <t>Course-Level Objectives</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Master the concepts common for software testing </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Master techniques to test and debug software </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Learn and apply tools used for test and improving code quality. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apply these tools, techniques and concepts in the development of a specific project</t>
-    </r>
   </si>
   <si>
     <t>Topics Covered in the Course</t>
@@ -599,15 +464,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">API Testing </t>
-  </si>
-  <si>
-    <t>Agile And EP, Code Reviews</t>
-  </si>
-  <si>
-    <t>Unit Testing with Java</t>
-  </si>
-  <si>
     <t>Set up … Introduction …  Testing Concepts. Verification/Validation</t>
   </si>
   <si>
@@ -615,6 +471,80 @@
   </si>
   <si>
     <t xml:space="preserve"> 02_SoftDevPrcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Code Reviews</t>
+  </si>
+  <si>
+    <t>Assignements and activites</t>
+  </si>
+  <si>
+    <t>MLK ( 1/18)  Paired Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TDD w/ Java</t>
+  </si>
+  <si>
+    <t>03)TestCaseDesign 04_unitTesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Integration testing</t>
+  </si>
+  <si>
+    <t>Load Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS Review and Debugging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile And EP, Unit Testing with Java. </t>
+  </si>
+  <si>
+    <t>Postman Work</t>
+  </si>
+  <si>
+    <t>Node.js work Project Definitions</t>
+  </si>
+  <si>
+    <t>FINAL EXAM T 11:15AM - (4/27)</t>
+  </si>
+  <si>
+    <t>Node.js testing work</t>
+  </si>
+  <si>
+    <t>Project work</t>
+  </si>
+  <si>
+    <t>Presentations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JS Problem … JS Debugging practice. Project teams created</t>
+    </r>
+  </si>
+  <si>
+    <t>JS Mocha TDD.  Projects defined</t>
+  </si>
+  <si>
+    <t>1. Expand development skills needed to become a professional software developer</t>
+  </si>
+  <si>
+    <t>2. Understand and utilize tools, techniques, and processes, needed to develop quality software</t>
+  </si>
+  <si>
+    <t>3. Develop a software project that utilizes and showcases these new skills and techniques</t>
+  </si>
+  <si>
+    <t>Unoffical Grading Tracker</t>
   </si>
 </sst>
 </file>
@@ -624,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +665,20 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -768,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -953,14 +897,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1058,8 +1012,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1076,9 +1028,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1092,7 +1041,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1120,6 +1068,28 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3228,387 +3198,388 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C139232E-AB69-40CF-AA0B-BEBEA94A0A25}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="58" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>76</v>
+      <c r="E2" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29">
         <v>44207</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="H3" s="55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37">
+      <c r="C3" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="47">
         <f>B3+7</f>
         <v>44214</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37">
+      <c r="D4" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36">
         <f t="shared" ref="A5:A18" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="29">
         <f>B4+7</f>
         <v>44221</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37">
+      <c r="C5" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="63">
         <f>B5+7</f>
         <v>44228</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37">
+      <c r="C6" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="44">
         <f>B6+7</f>
         <v>44235</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="H7" s="56" t="s">
-        <v>81</v>
+      <c r="C7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37">
+      <c r="A8" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <f>B7+7</f>
         <v>44242</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="44"/>
+      <c r="C8" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37">
+      <c r="A9" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f t="shared" ref="B9:B18" si="1">B8+7</f>
         <v>44249</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="42"/>
+      <c r="C9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f t="shared" si="1"/>
         <v>44256</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <f t="shared" si="1"/>
         <v>44263</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>82</v>
+      <c r="H11" s="49" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f t="shared" si="1"/>
         <v>44270</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="H12" s="57" t="s">
-        <v>83</v>
+      <c r="C12" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f t="shared" si="1"/>
         <v>44277</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="61" t="s">
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>84</v>
+      <c r="E13" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37">
+      <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <f t="shared" si="1"/>
         <v>44284</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>85</v>
+      <c r="E14" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <f t="shared" si="1"/>
         <v>44291</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>86</v>
+      <c r="C15" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f t="shared" si="1"/>
         <v>44298</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>87</v>
+      <c r="C16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f t="shared" si="1"/>
         <v>44305</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>88</v>
+      <c r="E17" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49">
+      <c r="A18" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <f t="shared" si="1"/>
         <v>44312</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="57" t="s">
-        <v>89</v>
+      <c r="H18" s="52" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>90</v>
+      <c r="E19" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H20" s="57" t="s">
-        <v>91</v>
+      <c r="H20" s="52" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3633,13 +3604,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
       <c r="G1">
         <v>4350</v>
@@ -3649,11 +3620,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3666,362 +3637,362 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>13</v>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4038,19 +4009,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
         <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4094,12 +4065,12 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -4107,7 +4078,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -4115,7 +4086,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -4165,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2908C5C-DC54-427E-907C-ACE6DF7EBAE9}">
   <dimension ref="C1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,223 +4149,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="3:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="7">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="8">
+      <c r="D3" s="15"/>
+      <c r="E3" s="9">
+        <v>45</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="9">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="10">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="9">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="10">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="9" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="11">
+        <v>100</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="9" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10">
-        <v>25</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12">
+    </row>
+    <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="18">
+        <f>SUM(E10:K10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="20">
         <v>100</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="9" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="L10" s="19">
-        <f>SUM(E10:K10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="21">
+      <c r="G11" s="20">
         <v>100</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="H11" s="19"/>
+      <c r="I11" s="20">
         <v>100</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21">
+      <c r="J11" s="19"/>
+      <c r="K11" s="20">
         <v>100</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21">
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
         <v>100</v>
       </c>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="20"/>
-      <c r="E12" s="21">
+      <c r="F12" s="19"/>
+      <c r="G12" s="20">
         <v>100</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21">
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20">
         <v>100</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="20"/>
-      <c r="E13" s="21">
+      <c r="F13" s="19"/>
+      <c r="G13" s="20">
         <v>100</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21">
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20">
         <v>100</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="20"/>
-      <c r="E14" s="21">
-        <v>100</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="22"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="22"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="22"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <f>AVERAGE(E11:E18)</f>
@@ -4424,7 +4398,7 @@
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <f>E10*E19</f>

--- a/CSC3510 S2021/CSC3510CourseSchedule.xlsx
+++ b/CSC3510 S2021/CSC3510CourseSchedule.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\CSC3510 S2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF97FF-EF95-4077-B739-6139DC9DC4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1992" yWindow="756" windowWidth="17280" windowHeight="8976" activeTab="2" xr2:uid="{684E20BE-84CE-46C8-8E7A-1465D0AC593E}"/>
+    <workbookView xWindow="1995" yWindow="750" windowWidth="17280" windowHeight="8970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Grades" sheetId="3" r:id="rId3"/>
+    <sheet name="Schedule V2" sheetId="4" r:id="rId4"/>
+    <sheet name="The Stack" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -546,11 +547,17 @@
   <si>
     <t>Unoffical Grading Tracker</t>
   </si>
+  <si>
+    <t xml:space="preserve">Junior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -913,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1090,6 +1097,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1148,6 +1156,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1307,6 +1316,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1413,6 +1423,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1444,7 +1455,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="0.18048661800486621"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.70662643446941398"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1627,6 +1648,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1634,6 +1656,232 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$S$22:$U$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sophomore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Junior </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$23:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4645-4F64-A64F-EA8945010085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1749,6 +1997,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2431,6 +2719,525 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2862,16 +3669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2894,6 +3701,1143 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236989</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="123825"/>
+          <a:ext cx="9085714" cy="6419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1616789" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="238125"/>
+          <a:ext cx="1616789" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Project Introduced </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5581650" y="412923"/>
+          <a:ext cx="1971675" cy="434802"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7496175" cy="9172126"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="76200"/>
+          <a:ext cx="7496175" cy="9172126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Topics:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>Java testing with JUnit </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>Extreme Programming -&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>- How to create EP teams</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>	    E.g., User stories, Epics, Release Planning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>	-  Learn and use it's "Best Practices" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>	      E.g., Paired Programming, TDD, Code Reviews</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Testing </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Unit test case design</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	- Types of testing </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	-  Testing 'Concepts'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JS -&gt; 	- Review HTML/CSS/JS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	- JS with Mocha/Chai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 	- Standards and ESLint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	- Advanced Debugging with Chrome tools</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>API Testing -&gt; REST Achitecure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	- Automating REST API tests with Postman</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Node.js -&gt; Review/introduction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	- Express</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	- Using Mocha/chai on node.js</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Other Types of testing </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Selenium? Integration testing. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jenkins -&gt; CI </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7496175" cy="4976170"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="6981825"/>
+          <a:ext cx="7496175" cy="4976170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>The  Code Stack                                                    Test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> Stack</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Client Side -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> Html/CSS -&gt; JavaScript </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>API -&gt; REST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>Server Side -&gt; Node.js/Express/Pug</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7496175" cy="4976170"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="695325"/>
+          <a:ext cx="7496175" cy="4976170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>The  Code Stack                                                    Test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> Stack</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Client Side -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> Html/CSS -&gt; JavaScript </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>API -&gt; REST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t>Server Side -&gt; Node.js/Express/Pug</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1330108" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="1543050"/>
+          <a:ext cx="1330108" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Mocha/Chai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1022396" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="2809875"/>
+          <a:ext cx="1022396" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>PostMan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1330108" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="3905250"/>
+          <a:ext cx="1330108" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Mocha/Chai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1774332" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="4848225"/>
+          <a:ext cx="1774332" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Overall Selenium</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5800725" y="1730121"/>
+          <a:ext cx="1038225" cy="355854"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3019425" y="2968371"/>
+          <a:ext cx="3857626" cy="222504"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5657850" y="4092321"/>
+          <a:ext cx="1190625" cy="184404"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3195,24 +5139,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C139232E-AB69-40CF-AA0B-BEBEA94A0A25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
@@ -3221,7 +5165,7 @@
       </c>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>64</v>
       </c>
@@ -3241,7 +5185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -3261,7 +5205,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <f>A3+1</f>
         <v>2</v>
@@ -3283,7 +5227,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <f t="shared" ref="A5:A18" si="0">A4+1</f>
         <v>3</v>
@@ -3305,7 +5249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3325,7 +5269,7 @@
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3344,7 +5288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3359,7 +5303,7 @@
       <c r="D8" s="38"/>
       <c r="E8" s="41"/>
     </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3378,7 +5322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3395,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3415,7 +5359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3437,7 +5381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3459,7 +5403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3481,7 +5425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3503,7 +5447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3525,7 +5469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3547,7 +5491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3569,7 +5513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="48" t="s">
         <v>96</v>
       </c>
@@ -3577,7 +5521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="52" t="s">
         <v>81</v>
       </c>
@@ -3590,19 +5534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CBE974-9F7C-4A84-8972-3BF599BC757E}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>32</v>
       </c>
@@ -3619,7 +5564,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3636,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3647,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3664,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3681,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3698,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3729,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3740,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -3774,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3791,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -3805,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3819,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -3830,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3844,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -3858,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3869,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -3883,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3894,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -3905,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -3921,8 +5866,17 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="U22" s="66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -3938,8 +5892,17 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>12</v>
+      </c>
+      <c r="U23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -3953,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -3970,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -3987,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -4007,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -4024,7 +5987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>SUM(C2:C27)</f>
         <v>4</v>
@@ -4050,7 +6013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G30">
         <f>G29/F29*100</f>
         <v>50</v>
@@ -4063,12 +6026,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>35</v>
       </c>
@@ -4076,7 +6039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -4084,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>36</v>
       </c>
@@ -4092,7 +6055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E40">
         <f>SUM(E36:E38)</f>
         <v>15</v>
@@ -4100,32 +6063,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="javascript:void(0);" xr:uid="{24B5EF42-F941-49B4-8F80-B27BCB0706CD}"/>
-    <hyperlink ref="A3" r:id="rId2" display="javascript:void(0);" xr:uid="{E7D7C268-ED53-4A68-BAB3-89CFDD3F9B27}"/>
-    <hyperlink ref="A4" r:id="rId3" display="javascript:void(0);" xr:uid="{75A64C48-5C42-45BF-A456-6C34075F09E5}"/>
-    <hyperlink ref="A5" r:id="rId4" display="javascript:void(0);" xr:uid="{90DDBF62-FC77-4EED-92E8-00EBFF57995F}"/>
-    <hyperlink ref="A6" r:id="rId5" display="javascript:void(0);" xr:uid="{22C305ED-C53D-4DC6-9172-0977EED83319}"/>
-    <hyperlink ref="A7" r:id="rId6" display="javascript:void(0);" xr:uid="{79C25DA5-04EC-468F-BA9B-23EDC8F3CA82}"/>
-    <hyperlink ref="A8" r:id="rId7" display="javascript:void(0);" xr:uid="{E9563EB6-B106-48E8-A899-ECDC62AA3816}"/>
-    <hyperlink ref="A9" r:id="rId8" display="javascript:void(0);" xr:uid="{69D48271-6C3E-4714-84AE-74D6A3E737E4}"/>
-    <hyperlink ref="A10" r:id="rId9" display="javascript:void(0);" xr:uid="{5F670607-D16B-444A-8B36-7B2A4F784D31}"/>
-    <hyperlink ref="A11" r:id="rId10" display="javascript:void(0);" xr:uid="{5D996129-CC4F-49EE-9CD8-F6B577C8A90E}"/>
-    <hyperlink ref="A12" r:id="rId11" display="javascript:void(0);" xr:uid="{E2A6D797-35CB-4E89-9ABC-6611022D3756}"/>
-    <hyperlink ref="A13" r:id="rId12" display="javascript:void(0);" xr:uid="{9057CB68-29F7-427A-8C4D-054819E98E5E}"/>
-    <hyperlink ref="A14" r:id="rId13" display="javascript:void(0);" xr:uid="{801CC239-F83D-4924-9452-DC58FC3BD609}"/>
-    <hyperlink ref="A15" r:id="rId14" display="javascript:void(0);" xr:uid="{36DFA0D6-C650-4E1E-A52C-BF2FB2E82111}"/>
-    <hyperlink ref="A16" r:id="rId15" display="javascript:void(0);" xr:uid="{CBED5A25-FAA9-415D-A969-0CA067B15CBC}"/>
-    <hyperlink ref="A17" r:id="rId16" display="javascript:void(0);" xr:uid="{C784BC0D-4491-4DCD-8D58-C4408E811E55}"/>
-    <hyperlink ref="A18" r:id="rId17" display="javascript:void(0);" xr:uid="{CA047727-122F-4F73-967B-B309C05DA35D}"/>
-    <hyperlink ref="A19" r:id="rId18" display="javascript:void(0);" xr:uid="{31BAA978-2446-469C-AF14-44E5C5B30830}"/>
-    <hyperlink ref="A20" r:id="rId19" display="javascript:void(0);" xr:uid="{465176DA-1D9F-45FA-AB5C-242B02CB1BB7}"/>
-    <hyperlink ref="A21" r:id="rId20" display="javascript:void(0);" xr:uid="{D75B6835-1647-4B26-869A-BDA708922AA1}"/>
-    <hyperlink ref="A22" r:id="rId21" display="javascript:void(0);" xr:uid="{5D12D399-69CE-4C9B-91AE-B397776FF199}"/>
-    <hyperlink ref="A23" r:id="rId22" display="javascript:void(0);" xr:uid="{EEFA62D6-CC5C-43C9-9CA5-132753F308B5}"/>
-    <hyperlink ref="A24" r:id="rId23" display="javascript:void(0);" xr:uid="{6445CF82-1866-4887-B590-E542E1FF6C94}"/>
-    <hyperlink ref="A25" r:id="rId24" display="javascript:void(0);" xr:uid="{5C128A77-94BD-4F62-9837-DEBF1755A6DE}"/>
-    <hyperlink ref="A26" r:id="rId25" display="javascript:void(0);" xr:uid="{56AEC5F0-2ACE-4E27-8464-5D3BF364A299}"/>
-    <hyperlink ref="A27" r:id="rId26" display="javascript:void(0);" xr:uid="{CB7FB924-8B5F-4111-9C22-54C8ED0342EB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="javascript:void(0);"/>
+    <hyperlink ref="A3" r:id="rId2" display="javascript:void(0);"/>
+    <hyperlink ref="A4" r:id="rId3" display="javascript:void(0);"/>
+    <hyperlink ref="A5" r:id="rId4" display="javascript:void(0);"/>
+    <hyperlink ref="A6" r:id="rId5" display="javascript:void(0);"/>
+    <hyperlink ref="A7" r:id="rId6" display="javascript:void(0);"/>
+    <hyperlink ref="A8" r:id="rId7" display="javascript:void(0);"/>
+    <hyperlink ref="A9" r:id="rId8" display="javascript:void(0);"/>
+    <hyperlink ref="A10" r:id="rId9" display="javascript:void(0);"/>
+    <hyperlink ref="A11" r:id="rId10" display="javascript:void(0);"/>
+    <hyperlink ref="A12" r:id="rId11" display="javascript:void(0);"/>
+    <hyperlink ref="A13" r:id="rId12" display="javascript:void(0);"/>
+    <hyperlink ref="A14" r:id="rId13" display="javascript:void(0);"/>
+    <hyperlink ref="A15" r:id="rId14" display="javascript:void(0);"/>
+    <hyperlink ref="A16" r:id="rId15" display="javascript:void(0);"/>
+    <hyperlink ref="A17" r:id="rId16" display="javascript:void(0);"/>
+    <hyperlink ref="A18" r:id="rId17" display="javascript:void(0);"/>
+    <hyperlink ref="A19" r:id="rId18" display="javascript:void(0);"/>
+    <hyperlink ref="A20" r:id="rId19" display="javascript:void(0);"/>
+    <hyperlink ref="A21" r:id="rId20" display="javascript:void(0);"/>
+    <hyperlink ref="A22" r:id="rId21" display="javascript:void(0);"/>
+    <hyperlink ref="A23" r:id="rId22" display="javascript:void(0);"/>
+    <hyperlink ref="A24" r:id="rId23" display="javascript:void(0);"/>
+    <hyperlink ref="A25" r:id="rId24" display="javascript:void(0);"/>
+    <hyperlink ref="A26" r:id="rId25" display="javascript:void(0);"/>
+    <hyperlink ref="A27" r:id="rId26" display="javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId27"/>
@@ -4133,23 +6096,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2908C5C-DC54-427E-907C-ACE6DF7EBAE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:12" ht="48" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
@@ -4162,7 +6125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
@@ -4172,7 +6135,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
@@ -4182,7 +6145,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
@@ -4192,7 +6155,7 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
@@ -4202,7 +6165,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="9" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
@@ -4231,7 +6194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
         <v>49</v>
       </c>
@@ -4256,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
         <v>56</v>
       </c>
@@ -4279,7 +6242,7 @@
       </c>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="20">
         <v>100</v>
@@ -4294,7 +6257,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="19"/>
       <c r="E13" s="20">
         <v>100</v>
@@ -4309,7 +6272,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="19"/>
       <c r="E14" s="20">
         <v>100</v>
@@ -4322,7 +6285,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="19"/>
@@ -4333,7 +6296,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="19"/>
@@ -4344,7 +6307,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="19"/>
@@ -4355,7 +6318,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="19"/>
@@ -4366,7 +6329,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>50</v>
       </c>
@@ -4396,7 +6359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -4433,4 +6396,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>